--- a/inputcons/Grouped_Final_Details.xlsx
+++ b/inputcons/Grouped_Final_Details.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
-  <si>
-    <t>Année</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
+  <si>
+    <t>Années</t>
   </si>
   <si>
     <t>Mois</t>
@@ -49,6 +49,9 @@
     <t>Avril</t>
   </si>
   <si>
+    <t>Décembre</t>
+  </si>
+  <si>
     <t>Juillet</t>
   </si>
   <si>
@@ -58,10 +61,22 @@
     <t>Mai</t>
   </si>
   <si>
+    <t>Novembre</t>
+  </si>
+  <si>
     <t>Octobre</t>
   </si>
   <si>
     <t>Septembre</t>
+  </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
+    <t>Mars</t>
   </si>
   <si>
     <t>DRINK</t>
@@ -428,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>3200</v>
@@ -483,13 +498,13 @@
         <v>282000</v>
       </c>
       <c r="G2">
-        <v>392540</v>
+        <v>569820</v>
       </c>
       <c r="H2">
         <v>810400</v>
       </c>
       <c r="I2">
-        <v>1724140</v>
+        <v>1901420</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>3200</v>
@@ -512,13 +527,13 @@
         <v>282000</v>
       </c>
       <c r="G3">
-        <v>392540</v>
+        <v>569820</v>
       </c>
       <c r="H3">
         <v>810400</v>
       </c>
       <c r="I3">
-        <v>1724140</v>
+        <v>1901420</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>1600</v>
@@ -541,13 +556,13 @@
         <v>141000</v>
       </c>
       <c r="G4">
-        <v>196270</v>
+        <v>284910</v>
       </c>
       <c r="H4">
         <v>405200</v>
       </c>
       <c r="I4">
-        <v>862070</v>
+        <v>950710</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>58040</v>
@@ -570,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>36160</v>
+        <v>52800</v>
       </c>
       <c r="H5">
         <v>219800</v>
       </c>
       <c r="I5">
-        <v>322000</v>
+        <v>338640</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>58040</v>
@@ -599,13 +614,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>36160</v>
+        <v>52800</v>
       </c>
       <c r="H6">
         <v>219800</v>
       </c>
       <c r="I6">
-        <v>322000</v>
+        <v>338640</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>29020</v>
@@ -628,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>18080</v>
+        <v>26400</v>
       </c>
       <c r="H7">
         <v>109900</v>
       </c>
       <c r="I7">
-        <v>161000</v>
+        <v>169320</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>71040</v>
+        <v>13820</v>
       </c>
       <c r="E8">
-        <v>252000</v>
+        <v>132000</v>
       </c>
       <c r="F8">
-        <v>200000</v>
+        <v>240200</v>
       </c>
       <c r="G8">
-        <v>163650</v>
+        <v>593516</v>
       </c>
       <c r="H8">
-        <v>723800</v>
+        <v>1027600</v>
       </c>
       <c r="I8">
-        <v>1410490</v>
+        <v>2007136</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,25 +689,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>71040</v>
+        <v>13820</v>
       </c>
       <c r="E9">
-        <v>252000</v>
+        <v>132000</v>
       </c>
       <c r="F9">
-        <v>200000</v>
+        <v>240200</v>
       </c>
       <c r="G9">
-        <v>163650</v>
+        <v>593516</v>
       </c>
       <c r="H9">
-        <v>723800</v>
+        <v>1027600</v>
       </c>
       <c r="I9">
-        <v>1410490</v>
+        <v>2007136</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,25 +718,25 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>35520</v>
+        <v>6910</v>
       </c>
       <c r="E10">
-        <v>126000</v>
+        <v>66000</v>
       </c>
       <c r="F10">
-        <v>100000</v>
+        <v>120100</v>
       </c>
       <c r="G10">
-        <v>81825</v>
+        <v>296758</v>
       </c>
       <c r="H10">
-        <v>361900</v>
+        <v>513800</v>
       </c>
       <c r="I10">
-        <v>705245</v>
+        <v>1003568</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,25 +747,25 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>19320</v>
+        <v>71040</v>
       </c>
       <c r="E11">
-        <v>192000</v>
+        <v>252000</v>
       </c>
       <c r="F11">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="G11">
-        <v>224040</v>
+        <v>271090</v>
       </c>
       <c r="H11">
-        <v>694400</v>
+        <v>723800</v>
       </c>
       <c r="I11">
-        <v>1349760</v>
+        <v>1517930</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -761,25 +776,25 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>19320</v>
+        <v>71040</v>
       </c>
       <c r="E12">
-        <v>192000</v>
+        <v>252000</v>
       </c>
       <c r="F12">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="G12">
-        <v>224040</v>
+        <v>271090</v>
       </c>
       <c r="H12">
-        <v>694400</v>
+        <v>723800</v>
       </c>
       <c r="I12">
-        <v>1349760</v>
+        <v>1517930</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -790,25 +805,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>9660</v>
+        <v>35520</v>
       </c>
       <c r="E13">
-        <v>96000</v>
+        <v>126000</v>
       </c>
       <c r="F13">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="G13">
-        <v>112020</v>
+        <v>135545</v>
       </c>
       <c r="H13">
-        <v>347200</v>
+        <v>361900</v>
       </c>
       <c r="I13">
-        <v>674880</v>
+        <v>758965</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -819,25 +834,25 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>91080</v>
+        <v>19320</v>
       </c>
       <c r="E14">
-        <v>134000</v>
+        <v>192000</v>
       </c>
       <c r="F14">
-        <v>188000</v>
+        <v>220000</v>
       </c>
       <c r="G14">
-        <v>242408.904</v>
+        <v>304400</v>
       </c>
       <c r="H14">
-        <v>559600</v>
+        <v>694400</v>
       </c>
       <c r="I14">
-        <v>1215088.904</v>
+        <v>1430120</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -848,25 +863,25 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>91080</v>
+        <v>19320</v>
       </c>
       <c r="E15">
-        <v>134000</v>
+        <v>192000</v>
       </c>
       <c r="F15">
-        <v>188000</v>
+        <v>220000</v>
       </c>
       <c r="G15">
-        <v>242408.904</v>
+        <v>304400</v>
       </c>
       <c r="H15">
-        <v>559600</v>
+        <v>694400</v>
       </c>
       <c r="I15">
-        <v>1215088.904</v>
+        <v>1430120</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -877,25 +892,25 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>45540</v>
+        <v>9660</v>
       </c>
       <c r="E16">
-        <v>67000</v>
+        <v>96000</v>
       </c>
       <c r="F16">
-        <v>94000</v>
+        <v>110000</v>
       </c>
       <c r="G16">
-        <v>121204.452</v>
+        <v>152200</v>
       </c>
       <c r="H16">
-        <v>279800</v>
+        <v>347200</v>
       </c>
       <c r="I16">
-        <v>607544.452</v>
+        <v>715060</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -906,25 +921,25 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>2360</v>
+        <v>91080</v>
       </c>
       <c r="E17">
-        <v>164000</v>
+        <v>134000</v>
       </c>
       <c r="F17">
-        <v>350000</v>
+        <v>188000</v>
       </c>
       <c r="G17">
-        <v>369680</v>
+        <v>314908.904</v>
       </c>
       <c r="H17">
-        <v>781200</v>
+        <v>559600</v>
       </c>
       <c r="I17">
-        <v>1667240</v>
+        <v>1287588.904</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -935,25 +950,25 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>2360</v>
+        <v>91080</v>
       </c>
       <c r="E18">
-        <v>164000</v>
+        <v>134000</v>
       </c>
       <c r="F18">
-        <v>350000</v>
+        <v>188000</v>
       </c>
       <c r="G18">
-        <v>369680</v>
+        <v>314908.904</v>
       </c>
       <c r="H18">
-        <v>781200</v>
+        <v>559600</v>
       </c>
       <c r="I18">
-        <v>1667240</v>
+        <v>1287588.904</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -964,25 +979,25 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>1180</v>
+        <v>45540</v>
       </c>
       <c r="E19">
-        <v>82000</v>
+        <v>67000</v>
       </c>
       <c r="F19">
-        <v>175000</v>
+        <v>94000</v>
       </c>
       <c r="G19">
-        <v>184840</v>
+        <v>157454.452</v>
       </c>
       <c r="H19">
-        <v>390600</v>
+        <v>279800</v>
       </c>
       <c r="I19">
-        <v>833620</v>
+        <v>643794.452</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -993,25 +1008,25 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>41600</v>
+        <v>89920</v>
       </c>
       <c r="E20">
-        <v>262000</v>
+        <v>222000</v>
       </c>
       <c r="F20">
-        <v>120200</v>
+        <v>240000</v>
       </c>
       <c r="G20">
-        <v>207440</v>
+        <v>626120</v>
       </c>
       <c r="H20">
-        <v>755000</v>
+        <v>842800</v>
       </c>
       <c r="I20">
-        <v>1386240</v>
+        <v>2020840</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1022,25 +1037,25 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>41600</v>
+        <v>89920</v>
       </c>
       <c r="E21">
-        <v>262000</v>
+        <v>222000</v>
       </c>
       <c r="F21">
-        <v>120200</v>
+        <v>240000</v>
       </c>
       <c r="G21">
-        <v>207440</v>
+        <v>626120</v>
       </c>
       <c r="H21">
-        <v>755000</v>
+        <v>842800</v>
       </c>
       <c r="I21">
-        <v>1386240</v>
+        <v>2020840</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1051,25 +1066,547 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>44960</v>
+      </c>
+      <c r="E22">
+        <v>111000</v>
+      </c>
+      <c r="F22">
+        <v>120000</v>
+      </c>
+      <c r="G22">
+        <v>313060</v>
+      </c>
+      <c r="H22">
+        <v>421400</v>
+      </c>
+      <c r="I22">
+        <v>1010420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>2023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>2360</v>
+      </c>
+      <c r="E23">
+        <v>164000</v>
+      </c>
+      <c r="F23">
+        <v>350000</v>
+      </c>
+      <c r="G23">
+        <v>522720</v>
+      </c>
+      <c r="H23">
+        <v>781200</v>
+      </c>
+      <c r="I23">
+        <v>1820280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>2023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>2360</v>
+      </c>
+      <c r="E24">
+        <v>164000</v>
+      </c>
+      <c r="F24">
+        <v>350000</v>
+      </c>
+      <c r="G24">
+        <v>522720</v>
+      </c>
+      <c r="H24">
+        <v>781200</v>
+      </c>
+      <c r="I24">
+        <v>1820280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>2023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>1180</v>
+      </c>
+      <c r="E25">
+        <v>82000</v>
+      </c>
+      <c r="F25">
+        <v>175000</v>
+      </c>
+      <c r="G25">
+        <v>261360</v>
+      </c>
+      <c r="H25">
+        <v>390600</v>
+      </c>
+      <c r="I25">
+        <v>910140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>41600</v>
+      </c>
+      <c r="E26">
+        <v>262000</v>
+      </c>
+      <c r="F26">
+        <v>120200</v>
+      </c>
+      <c r="G26">
+        <v>315680</v>
+      </c>
+      <c r="H26">
+        <v>755000</v>
+      </c>
+      <c r="I26">
+        <v>1494480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>2023</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>41600</v>
+      </c>
+      <c r="E27">
+        <v>262000</v>
+      </c>
+      <c r="F27">
+        <v>120200</v>
+      </c>
+      <c r="G27">
+        <v>315680</v>
+      </c>
+      <c r="H27">
+        <v>755000</v>
+      </c>
+      <c r="I27">
+        <v>1494480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>2023</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>20800</v>
+      </c>
+      <c r="E28">
+        <v>131000</v>
+      </c>
+      <c r="F28">
+        <v>60100</v>
+      </c>
+      <c r="G28">
+        <v>157840</v>
+      </c>
+      <c r="H28">
+        <v>377500</v>
+      </c>
+      <c r="I28">
+        <v>747240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>2024</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>400</v>
+      </c>
+      <c r="E29">
+        <v>156000</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>165080</v>
+      </c>
+      <c r="H29">
+        <v>733600</v>
+      </c>
+      <c r="I29">
+        <v>1055080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>2024</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>400</v>
+      </c>
+      <c r="E30">
+        <v>156000</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>165080</v>
+      </c>
+      <c r="H30">
+        <v>733600</v>
+      </c>
+      <c r="I30">
+        <v>1055080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>2024</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31">
+        <v>78000</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>82540</v>
+      </c>
+      <c r="H31">
+        <v>366800</v>
+      </c>
+      <c r="I31">
+        <v>527540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="D22">
-        <v>20800</v>
-      </c>
-      <c r="E22">
-        <v>131000</v>
-      </c>
-      <c r="F22">
-        <v>60100</v>
-      </c>
-      <c r="G22">
-        <v>103720</v>
-      </c>
-      <c r="H22">
-        <v>377500</v>
-      </c>
-      <c r="I22">
-        <v>693120</v>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>14280</v>
+      </c>
+      <c r="E32">
+        <v>220000</v>
+      </c>
+      <c r="F32">
+        <v>300000</v>
+      </c>
+      <c r="G32">
+        <v>725060</v>
+      </c>
+      <c r="H32">
+        <v>845200</v>
+      </c>
+      <c r="I32">
+        <v>2104540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>2024</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>14280</v>
+      </c>
+      <c r="E33">
+        <v>220000</v>
+      </c>
+      <c r="F33">
+        <v>300000</v>
+      </c>
+      <c r="G33">
+        <v>725060</v>
+      </c>
+      <c r="H33">
+        <v>845200</v>
+      </c>
+      <c r="I33">
+        <v>2104540</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>2024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>7140</v>
+      </c>
+      <c r="E34">
+        <v>110000</v>
+      </c>
+      <c r="F34">
+        <v>150000</v>
+      </c>
+      <c r="G34">
+        <v>362530</v>
+      </c>
+      <c r="H34">
+        <v>422600</v>
+      </c>
+      <c r="I34">
+        <v>1052270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>2024</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>97680</v>
+      </c>
+      <c r="E35">
+        <v>178000</v>
+      </c>
+      <c r="F35">
+        <v>300000</v>
+      </c>
+      <c r="G35">
+        <v>481420</v>
+      </c>
+      <c r="H35">
+        <v>892200</v>
+      </c>
+      <c r="I35">
+        <v>1949300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>2024</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>97680</v>
+      </c>
+      <c r="E36">
+        <v>178000</v>
+      </c>
+      <c r="F36">
+        <v>300000</v>
+      </c>
+      <c r="G36">
+        <v>481420</v>
+      </c>
+      <c r="H36">
+        <v>892200</v>
+      </c>
+      <c r="I36">
+        <v>1949300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>2024</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>48840</v>
+      </c>
+      <c r="E37">
+        <v>89000</v>
+      </c>
+      <c r="F37">
+        <v>150000</v>
+      </c>
+      <c r="G37">
+        <v>240710</v>
+      </c>
+      <c r="H37">
+        <v>446100</v>
+      </c>
+      <c r="I37">
+        <v>974650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>2024</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>2200</v>
+      </c>
+      <c r="E38">
+        <v>148000</v>
+      </c>
+      <c r="F38">
+        <v>188000</v>
+      </c>
+      <c r="G38">
+        <v>389140</v>
+      </c>
+      <c r="H38">
+        <v>816200</v>
+      </c>
+      <c r="I38">
+        <v>1543540</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>2200</v>
+      </c>
+      <c r="E39">
+        <v>148000</v>
+      </c>
+      <c r="F39">
+        <v>188000</v>
+      </c>
+      <c r="G39">
+        <v>389140</v>
+      </c>
+      <c r="H39">
+        <v>816200</v>
+      </c>
+      <c r="I39">
+        <v>1543540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>2024</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>1100</v>
+      </c>
+      <c r="E40">
+        <v>74000</v>
+      </c>
+      <c r="F40">
+        <v>94000</v>
+      </c>
+      <c r="G40">
+        <v>194570</v>
+      </c>
+      <c r="H40">
+        <v>408100</v>
+      </c>
+      <c r="I40">
+        <v>771770</v>
       </c>
     </row>
   </sheetData>
